--- a/Processed Results/Nexus 5X/Camera/Camera - Processed.xlsx
+++ b/Processed Results/Nexus 5X/Camera/Camera - Processed.xlsx
@@ -8,23 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\Camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD5C6DA-C465-46BE-A50A-0DC51BF544A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A253A1-9BC7-48A9-B980-32D042CEB992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="1140" yWindow="970" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$34:$A$63</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$98:$B$187</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$98:$B$187</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$34:$B$63</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Blad1!$A$66:$A$95</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Blad1!$B$65</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$66:$B$95</definedName>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
     <t>Mean line</t>
   </si>
@@ -101,6 +99,12 @@
   </si>
   <si>
     <t>Relative std</t>
+  </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
   </si>
 </sst>
 </file>
@@ -2094,10 +2098,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2216,10 +2220,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2337,10 +2341,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2378,7 +2382,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7198,10 +7202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B100" activeCellId="2" sqref="B98 B99 B100:B187"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7415,7 +7419,7 @@
         <v>1.8911255613403095</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7423,23 +7427,37 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>162.90144000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>159.76871999999901</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f xml:space="preserve"> ((E3 / 114.202998) * 100) - 100</f>
+        <v>40.081758624234595</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((E10 / 113.658804) * 100) - 100</f>
+        <v>40.56871476493717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7447,7 +7465,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7455,7 +7473,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7463,7 +7481,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7471,7 +7489,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7479,7 +7497,7 @@
         <v>158.20236</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7487,7 +7505,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7495,7 +7513,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>164.46779999999899</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7511,7 +7529,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7519,7 +7537,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7527,7 +7545,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7535,7 +7553,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -7742,7 +7760,7 @@
         <v>2.3531227141441184</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -7750,23 +7768,37 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>161.33508</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>161.33508</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f xml:space="preserve"> ((E35 / 114.202998) * 100) - 100</f>
+        <v>38.897647152835361</v>
+      </c>
+      <c r="F51">
+        <f xml:space="preserve"> ((E42 / 113.658804) * 100) - 100</f>
+        <v>40.56871476493717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7774,7 +7806,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7782,7 +7814,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7790,7 +7822,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7798,7 +7830,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7806,7 +7838,7 @@
         <v>145.51484399999899</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7814,7 +7846,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7822,7 +7854,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7830,7 +7862,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7838,7 +7870,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7846,7 +7878,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -7854,7 +7886,7 @@
         <v>156.47936399999901</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -7862,7 +7894,7 @@
         <v>156.16609199999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -8069,7 +8101,7 @@
         <v>2.8993247343148436</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -8077,23 +8109,37 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="1">
         <v>161.33508</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>162.90144000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f xml:space="preserve"> ((E67 / 114.202998) * 100) - 100</f>
+        <v>38.847356704243225</v>
+      </c>
+      <c r="F83">
+        <f xml:space="preserve"> ((E74 / 113.658804) * 100) - 100</f>
+        <v>40.56871476493717</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -8101,7 +8147,7 @@
         <v>162.90144000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -8109,7 +8155,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -8117,7 +8163,7 @@
         <v>158.20236</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -8125,7 +8171,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -8133,7 +8179,7 @@
         <v>147.23784000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -8141,7 +8187,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -8149,7 +8195,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -8157,7 +8203,7 @@
         <v>164.46779999999899</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -8165,7 +8211,7 @@
         <v>156.636</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -8173,7 +8219,7 @@
         <v>153.50327999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -8181,7 +8227,7 @@
         <v>149.90065200000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -8189,7 +8235,7 @@
         <v>149.27410800000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8317,23 +8363,37 @@
         <v>162.90144000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>159.76871999999901</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="1">
         <v>162.90144000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f xml:space="preserve"> (D19 + D51 + D83) / 3</f>
+        <v>39.275587493771063</v>
+      </c>
+      <c r="F114">
+        <f xml:space="preserve"> (F19 + F51 + F83) / 3</f>
+        <v>40.56871476493717</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -8341,7 +8401,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -8349,7 +8409,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -8357,7 +8417,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -8365,7 +8425,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -8373,7 +8433,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -8381,7 +8441,7 @@
         <v>158.20236</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -8389,7 +8449,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -8397,7 +8457,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -8405,7 +8465,7 @@
         <v>164.46779999999899</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -8413,7 +8473,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -8421,7 +8481,7 @@
         <v>159.76871999999901</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -8429,7 +8489,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8437,7 +8497,7 @@
         <v>161.33508</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
